--- a/LevelTests.xlsx
+++ b/LevelTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayla\Desktop\advanced-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFF4461-CB9B-4016-A3BE-523106E12690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF26EC-EBF7-4DAF-9FF4-39901EEB2EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,19 +150,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -197,19 +191,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -233,42 +221,13 @@
             <c:v>Level 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -331,42 +290,13 @@
             <c:v>Level 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -406,42 +336,13 @@
             <c:v>Level 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -481,42 +382,13 @@
             <c:v>Level 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -556,42 +428,13 @@
             <c:v>Level 5</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -631,42 +474,13 @@
             <c:v>Level 6</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -707,8 +521,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="1259458927"/>
         <c:axId val="1041063759"/>
       </c:barChart>
@@ -725,11 +539,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -743,8 +557,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -774,9 +589,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -791,10 +606,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -822,10 +638,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -855,8 +672,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -896,8 +714,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -921,28 +740,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -985,19 +793,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1032,19 +834,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1068,42 +864,13 @@
             <c:v>500 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1172,42 +939,13 @@
             <c:v>1000 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1250,42 +988,13 @@
             <c:v>1500 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1328,42 +1037,13 @@
             <c:v>2000 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1403,45 +1083,18 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>2500</c:v>
+            <c:v>2500 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1485,8 +1138,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="1259458927"/>
         <c:axId val="1041063759"/>
       </c:barChart>
@@ -1503,11 +1156,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1521,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1552,9 +1206,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1569,10 +1223,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1600,10 +1255,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1633,8 +1289,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1674,8 +1331,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1699,28 +1357,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1823,33 +1470,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1857,34 +1506,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1893,8 +1534,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1913,6 +1555,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1921,35 +1571,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1961,31 +1611,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2001,18 +1650,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2022,20 +1674,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2046,167 +1698,167 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
       <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2214,14 +1866,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2233,19 +1885,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2254,13 +1899,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2269,8 +1915,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2280,7 +1927,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2288,9 +1935,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2301,8 +1948,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2312,40 +1960,48 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2353,34 +2009,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2389,8 +2037,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2409,6 +2058,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2417,35 +2074,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2457,31 +2114,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2497,18 +2153,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2518,20 +2177,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2542,167 +2201,167 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
       <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2710,14 +2369,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2729,19 +2388,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2750,13 +2402,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2765,8 +2418,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2776,7 +2430,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2784,9 +2438,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2797,8 +2451,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2808,8 +2463,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3158,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
